--- a/data/trans_media/Q15_2-Edad-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Edad-trans_media.xlsx
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,37</t>
+          <t>1,0; 1,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,43</t>
+          <t>1,0; 1,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,69</t>
+          <t>1,0; 1,71</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,21</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,07</t>
+          <t>1,0; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,81</t>
+          <t>1,0; 2,87</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,3</t>
+          <t>1,0; 1,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,46</t>
+          <t>1,0; 1,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,52</t>
+          <t>1,0; 2,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,23</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,66</t>
+          <t>1,0; 1,84</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,31</t>
+          <t>1,0; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,98</t>
+          <t>1,11; 1,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,23</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,48</t>
+          <t>1,04; 1,45</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,38</t>
+          <t>1,0; 1,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,27</t>
+          <t>1,0; 1,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,25</t>
+          <t>1,0; 1,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,07</t>
+          <t>1,04; 2,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,17</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,36</t>
+          <t>1,12; 1,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,27</t>
+          <t>1,05; 1,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,1</t>
+          <t>1,0; 1,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,42</t>
+          <t>1,13; 1,43</t>
         </is>
       </c>
     </row>
@@ -1574,22 +1574,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,13</t>
+          <t>1,02; 1,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,6</t>
+          <t>1,08; 1,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,05</t>
+          <t>1,0; 1,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,14</t>
+          <t>1,03; 1,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>1,11; 1,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,02</t>
+          <t>1,0; 1,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,37</t>
+          <t>1,12; 1,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q15_2-Edad-trans_media.xlsx
+++ b/data/trans_media/Q15_2-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,42</t>
+          <t>1,0; 1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,42</t>
+          <t>1,0; 1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,3</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,22</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,32</t>
+          <t>1,0; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,39</t>
+          <t>1,0; 1,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,3</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,31</t>
+          <t>1,0; 1,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,24</t>
+          <t>1,0; 1,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,37</t>
+          <t>1,07; 1,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,11</t>
+          <t>1,0; 1,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,26</t>
+          <t>1,07; 1,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,06</t>
+          <t>1,0; 1,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,15</t>
+          <t>1,02; 1,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
